--- a/Analysis1/Matlab/P1R2.xlsx
+++ b/Analysis1/Matlab/P1R2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Applied_Project\Analysis1\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2026C7-7991-44A3-8631-F3C734F7CD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB417A2-BA4E-4ECF-8022-B0AB1D9D7482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$C$1:$C$2901</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5958" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="9">
   <si>
     <t>Recording timestamp</t>
   </si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Prompt</t>
   </si>
   <si>
     <t>SyncPortOutHigh</t>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F2901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C218" sqref="A1:F2901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4760,8 +4760,8 @@
       <c r="B218">
         <v>107312250</v>
       </c>
-      <c r="C218" t="s">
-        <v>7</v>
+      <c r="C218">
+        <v>1</v>
       </c>
       <c r="D218" t="s">
         <v>6</v>
@@ -11080,8 +11080,8 @@
       <c r="B534">
         <v>128249083</v>
       </c>
-      <c r="C534" t="s">
-        <v>7</v>
+      <c r="C534">
+        <v>1</v>
       </c>
       <c r="D534" t="s">
         <v>6</v>
@@ -17960,8 +17960,8 @@
       <c r="B878">
         <v>135280833</v>
       </c>
-      <c r="C878" t="s">
-        <v>7</v>
+      <c r="C878">
+        <v>1</v>
       </c>
       <c r="D878" t="s">
         <v>6</v>
@@ -20961,7 +20961,7 @@
         <v>140501549</v>
       </c>
       <c r="C1028" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1028" t="s">
         <v>6</v>
@@ -22981,7 +22981,7 @@
         <v>141501549</v>
       </c>
       <c r="C1129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1129" t="s">
         <v>6</v>
@@ -24640,8 +24640,8 @@
       <c r="B1212">
         <v>142326333</v>
       </c>
-      <c r="C1212" t="s">
-        <v>7</v>
+      <c r="C1212">
+        <v>1</v>
       </c>
       <c r="D1212" t="s">
         <v>6</v>
@@ -31360,8 +31360,8 @@
       <c r="B1548">
         <v>149288583</v>
       </c>
-      <c r="C1548" t="s">
-        <v>7</v>
+      <c r="C1548">
+        <v>1</v>
       </c>
       <c r="D1548" t="s">
         <v>6</v>
@@ -38080,8 +38080,8 @@
       <c r="B1884">
         <v>156252083</v>
       </c>
-      <c r="C1884" t="s">
-        <v>7</v>
+      <c r="C1884">
+        <v>1</v>
       </c>
       <c r="D1884" t="s">
         <v>6</v>
@@ -39461,7 +39461,7 @@
         <v>160564171</v>
       </c>
       <c r="C1953" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1953" t="s">
         <v>6</v>
@@ -41481,7 +41481,7 @@
         <v>161564171</v>
       </c>
       <c r="C2054" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2054" t="s">
         <v>6</v>
@@ -44920,8 +44920,8 @@
       <c r="B2226">
         <v>163278291</v>
       </c>
-      <c r="C2226" t="s">
-        <v>7</v>
+      <c r="C2226">
+        <v>1</v>
       </c>
       <c r="D2226" t="s">
         <v>6</v>
@@ -51500,8 +51500,8 @@
       <c r="B2555">
         <v>170267875</v>
       </c>
-      <c r="C2555" t="s">
-        <v>7</v>
+      <c r="C2555">
+        <v>1</v>
       </c>
       <c r="D2555" t="s">
         <v>6</v>
@@ -58420,8 +58420,8 @@
       <c r="B2901">
         <v>177297000</v>
       </c>
-      <c r="C2901" t="s">
-        <v>7</v>
+      <c r="C2901">
+        <v>1</v>
       </c>
       <c r="D2901" t="s">
         <v>6</v>
@@ -58434,6 +58434,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C2901" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
